--- a/example/GettingStarted/data/config.xlsx
+++ b/example/GettingStarted/data/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13305" activeTab="2"/>
+    <workbookView windowWidth="28155" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="类型" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>整形</t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>level_3</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>触发</t>
+  </si>
+  <si>
+    <t>[{斗地主,3},{每人捕鱼,2}]</t>
+  </si>
+  <si>
+    <t>斗地主</t>
+  </si>
+  <si>
+    <t>每人捕鱼</t>
   </si>
 </sst>
 </file>
@@ -197,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -233,6 +251,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -241,8 +266,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,20 +284,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,10 +298,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,6 +313,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -301,6 +336,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -309,32 +352,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,9 +381,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,31 +403,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,37 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,19 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,85 +559,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,26 +615,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,21 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -676,161 +679,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -914,7 +935,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1170,10 +1191,10 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="4" width="10.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="13.1111111111111" customWidth="1"/>
@@ -1187,391 +1208,391 @@
     <col min="16" max="16" width="12.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="22" customHeight="1" spans="1:16">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="4" customFormat="1" ht="22" customHeight="1" spans="1:16">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="22" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="4" customFormat="1" ht="22" customHeight="1" spans="1:16">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="22" customHeight="1" spans="1:16">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="4" customFormat="1" ht="22" customHeight="1" spans="1:16">
+      <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>1.1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>1.1</v>
       </c>
-      <c r="F4" s="6" t="b">
+      <c r="F4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="b">
+      <c r="G4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="b">
+      <c r="H4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
         <v>2.1</v>
       </c>
-      <c r="F5" s="6" t="b">
+      <c r="F5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="6" t="b">
+      <c r="G5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="6" t="b">
+      <c r="H5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>3.1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>3.1</v>
       </c>
-      <c r="F6" s="6" t="b">
+      <c r="F6" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="b">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>4.1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>4.1</v>
       </c>
-      <c r="F7" s="6" t="b">
+      <c r="F7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="6" t="b">
+      <c r="G7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="6" t="b">
+      <c r="H7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>5.1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>5.1</v>
       </c>
-      <c r="F8" s="6" t="b">
+      <c r="F8" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="b">
+      <c r="G8" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="6" t="b">
+      <c r="H8" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="7"/>
+      <c r="N8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6" t="s">
+      <c r="O8" s="7"/>
+      <c r="P8" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1587,10 +1608,10 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1710,13 +1731,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1740,7 +1764,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1750,8 +1774,17 @@
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1761,12 +1794,31 @@
       <c r="C4">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5">
         <v>112</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1816,11 +1868,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B11"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
